--- a/tables/Heterogen_MetaAnalyses_Temperature.xlsx
+++ b/tables/Heterogen_MetaAnalyses_Temperature.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">pval</t>
   </si>
   <si>
-    <t xml:space="preserve">1670.7</t>
+    <t xml:space="preserve">1618.4</t>
   </si>
   <si>
     <t xml:space="preserve">0.956</t>
@@ -50,34 +50,34 @@
     <t xml:space="preserve">&lt;0.001</t>
   </si>
   <si>
-    <t xml:space="preserve"> 253.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.643</t>
+    <t xml:space="preserve"> 249.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637</t>
   </si>
   <si>
     <t xml:space="preserve">ZG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 282.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579</t>
+    <t xml:space="preserve"> 251.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545</t>
   </si>
   <si>
     <t xml:space="preserve">CG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 349.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.721</t>
+    <t xml:space="preserve"> 345.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730</t>
   </si>
   <si>
     <t xml:space="preserve">PG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 127.1</t>
+    <t xml:space="preserve"> 124.0</t>
   </si>
   <si>
     <t xml:space="preserve">0.000</t>
@@ -86,19 +86,19 @@
     <t xml:space="preserve">CZG</t>
   </si>
   <si>
-    <t xml:space="preserve">0.079</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 126.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299</t>
+    <t xml:space="preserve">0.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 121.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286</t>
   </si>
   <si>
     <t xml:space="preserve">TotalCG</t>
   </si>
   <si>
-    <t xml:space="preserve">0.089</t>
+    <t xml:space="preserve">0.107</t>
   </si>
   <si>
     <t xml:space="preserve">1519.1</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">0.479</t>
   </si>
   <si>
-    <t xml:space="preserve"> 124.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401</t>
+    <t xml:space="preserve"> 121.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390</t>
   </si>
   <si>
     <t xml:space="preserve">0.014</t>
@@ -131,16 +131,16 @@
     <t xml:space="preserve">0.660</t>
   </si>
   <si>
-    <t xml:space="preserve">  88.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  55.8</t>
+    <t xml:space="preserve">  89.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  55.6</t>
   </si>
   <si>
     <t xml:space="preserve">0.998</t>
